--- a/teaching/traditional_assets/database/data/israel/israel_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_precious_metals.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,23 +590,8 @@
           <t>Precious Metals</t>
         </is>
       </c>
-      <c r="G2">
-        <v>-22.15686274509804</v>
-      </c>
-      <c r="H2">
-        <v>-22.15686274509804</v>
-      </c>
-      <c r="I2">
-        <v>-23.72549019607843</v>
-      </c>
-      <c r="J2">
-        <v>-23.72549019607843</v>
-      </c>
       <c r="K2">
-        <v>0.219</v>
-      </c>
-      <c r="L2">
-        <v>4.294117647058823</v>
+        <v>-6.97</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,79 +609,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.6889999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="V2">
-        <v>0.1709677419354838</v>
+        <v>0.01734375</v>
       </c>
       <c r="W2">
-        <v>0.02514351320321469</v>
+        <v>-0.3332610789980732</v>
       </c>
       <c r="X2">
-        <v>0.09052194447012062</v>
+        <v>0.05841028153047122</v>
       </c>
       <c r="Y2">
-        <v>-0.06537843126690593</v>
+        <v>-0.3916713605285445</v>
       </c>
       <c r="Z2">
-        <v>0.005978197163286836</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.1418356581877857</v>
+        <v>-0.3239004782020934</v>
       </c>
       <c r="AB2">
-        <v>0.0782705459660442</v>
+        <v>0.05644738916272505</v>
       </c>
       <c r="AC2">
-        <v>-0.2201062041538299</v>
+        <v>-0.3803478673648185</v>
       </c>
       <c r="AD2">
-        <v>1.11</v>
+        <v>0.789</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.11</v>
+        <v>0.789</v>
       </c>
       <c r="AG2">
-        <v>0.4210000000000002</v>
+        <v>0.4560000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.2159533073929961</v>
+        <v>0.03947170944019211</v>
       </c>
       <c r="AI2">
-        <v>0.06564163217031344</v>
+        <v>0.04708761040821197</v>
       </c>
       <c r="AJ2">
-        <v>0.09458548640754889</v>
+        <v>0.0231990231990232</v>
       </c>
       <c r="AK2">
-        <v>0.02595401023364775</v>
+        <v>0.02776593801376119</v>
       </c>
       <c r="AL2">
-        <v>0.437</v>
+        <v>0.24</v>
       </c>
       <c r="AM2">
-        <v>0.437</v>
+        <v>-0.461</v>
       </c>
       <c r="AN2">
-        <v>-0.9173553719008265</v>
+        <v>-0.1475317875841436</v>
       </c>
       <c r="AO2">
-        <v>-2.768878718535469</v>
+        <v>-27.75</v>
       </c>
       <c r="AP2">
-        <v>-0.3479338842975208</v>
+        <v>-0.08526551982049364</v>
       </c>
       <c r="AQ2">
-        <v>-2.768878718535469</v>
+        <v>14.4468546637744</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +692,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shefa Yamim Ltd (TASE:SEFA)</t>
+          <t>Shefa Gems Ltd (LSE:SEFA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -715,23 +700,8 @@
           <t>Precious Metals</t>
         </is>
       </c>
-      <c r="G3">
-        <v>-22.15686274509804</v>
-      </c>
-      <c r="H3">
-        <v>-22.15686274509804</v>
-      </c>
-      <c r="I3">
-        <v>-23.72549019607843</v>
-      </c>
-      <c r="J3">
-        <v>-23.72549019607843</v>
-      </c>
       <c r="K3">
-        <v>0.219</v>
-      </c>
-      <c r="L3">
-        <v>4.294117647058823</v>
+        <v>-2.16</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +710,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,79 +719,186 @@
         <v>-0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.299</v>
+      </c>
+      <c r="V3">
+        <v>0.05436363636363636</v>
+      </c>
+      <c r="W3">
+        <v>-0.1248554913294798</v>
+      </c>
+      <c r="X3">
+        <v>0.0603026093091025</v>
+      </c>
+      <c r="Y3">
+        <v>-0.1851581006385823</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>-0.07474429583005508</v>
+      </c>
+      <c r="AB3">
+        <v>0.05659722945519478</v>
+      </c>
+      <c r="AC3">
+        <v>-0.1313415252852499</v>
+      </c>
+      <c r="AD3">
+        <v>0.638</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0.638</v>
+      </c>
+      <c r="AG3">
+        <v>0.339</v>
+      </c>
+      <c r="AH3">
+        <v>0.1039426523297491</v>
+      </c>
+      <c r="AI3">
+        <v>0.03701125420582434</v>
+      </c>
+      <c r="AJ3">
+        <v>0.05805788662442199</v>
+      </c>
+      <c r="AK3">
+        <v>0.02001298777968003</v>
+      </c>
+      <c r="AL3">
+        <v>0.24</v>
+      </c>
+      <c r="AM3">
+        <v>0.24</v>
+      </c>
+      <c r="AN3">
+        <v>-1.032362459546926</v>
+      </c>
+      <c r="AO3">
+        <v>-5.541666666666667</v>
+      </c>
+      <c r="AP3">
+        <v>-0.5485436893203884</v>
+      </c>
+      <c r="AQ3">
+        <v>-5.541666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nala Digital Commerce Ltd (TASE:NALA)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Precious Metals</t>
+        </is>
+      </c>
+      <c r="K4">
+        <v>-4.81</v>
+      </c>
+      <c r="M4">
         <v>-0</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0.6889999999999999</v>
-      </c>
-      <c r="V3">
-        <v>0.1709677419354838</v>
-      </c>
-      <c r="W3">
-        <v>0.02514351320321469</v>
-      </c>
-      <c r="X3">
-        <v>0.09052194447012062</v>
-      </c>
-      <c r="Y3">
-        <v>-0.06537843126690593</v>
-      </c>
-      <c r="Z3">
-        <v>0.005978197163286836</v>
-      </c>
-      <c r="AA3">
-        <v>-0.1418356581877857</v>
-      </c>
-      <c r="AB3">
-        <v>0.0782705459660442</v>
-      </c>
-      <c r="AC3">
-        <v>-0.2201062041538299</v>
-      </c>
-      <c r="AD3">
-        <v>1.11</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>1.11</v>
-      </c>
-      <c r="AG3">
-        <v>0.4210000000000002</v>
-      </c>
-      <c r="AH3">
-        <v>0.2159533073929961</v>
-      </c>
-      <c r="AI3">
-        <v>0.06564163217031344</v>
-      </c>
-      <c r="AJ3">
-        <v>0.09458548640754889</v>
-      </c>
-      <c r="AK3">
-        <v>0.02595401023364775</v>
-      </c>
-      <c r="AL3">
-        <v>0.437</v>
-      </c>
-      <c r="AM3">
-        <v>0.437</v>
-      </c>
-      <c r="AN3">
-        <v>-0.9173553719008265</v>
-      </c>
-      <c r="AO3">
-        <v>-2.768878718535469</v>
-      </c>
-      <c r="AP3">
-        <v>-0.3479338842975208</v>
-      </c>
-      <c r="AQ3">
-        <v>-2.768878718535469</v>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.034</v>
+      </c>
+      <c r="V4">
+        <v>0.002481751824817518</v>
+      </c>
+      <c r="W4">
+        <v>-0.5416666666666666</v>
+      </c>
+      <c r="X4">
+        <v>0.05651795375183993</v>
+      </c>
+      <c r="Y4">
+        <v>-0.5981846204185066</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>-0.5730566605741318</v>
+      </c>
+      <c r="AB4">
+        <v>0.05629754887025532</v>
+      </c>
+      <c r="AC4">
+        <v>-0.6293542094443871</v>
+      </c>
+      <c r="AD4">
+        <v>0.151</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.151</v>
+      </c>
+      <c r="AG4">
+        <v>0.117</v>
+      </c>
+      <c r="AH4">
+        <v>0.01090173994657426</v>
+      </c>
+      <c r="AI4">
+        <v>-0.3132780082987552</v>
+      </c>
+      <c r="AJ4">
+        <v>0.008467829485416516</v>
+      </c>
+      <c r="AK4">
+        <v>-0.2267441860465116</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>-0.701</v>
+      </c>
+      <c r="AN4">
+        <v>-0.03192389006342494</v>
+      </c>
+      <c r="AP4">
+        <v>-0.02473572938689217</v>
+      </c>
+      <c r="AQ4">
+        <v>7.603423680456491</v>
       </c>
     </row>
   </sheetData>
